--- a/output/supp_mat2_aft_review.xlsx
+++ b/output/supp_mat2_aft_review.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Species</t>
   </si>
@@ -29,6 +29,9 @@
     <t xml:space="preserve">Reference</t>
   </si>
   <si>
+    <t xml:space="preserve">Comment</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sperm whales</t>
   </si>
   <si>
@@ -75,6 +78,9 @@
   </si>
   <si>
     <t xml:space="preserve">deduced from Sparaventi et al. 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimates from this study were originally calculated for the reproduction period only. They were raised to annual estimates using a simple cross product.</t>
   </si>
   <si>
     <t xml:space="preserve">Leopard seals</t>
@@ -449,187 +455,203 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>50</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>65</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
         <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>367</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
         <v>630</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>169</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>9.3</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>44.3</v>
       </c>
       <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
+      <c r="F10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>150.9</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
         <v>3.1</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
